--- a/biology/Zoologie/Agathon_(diptère)/Agathon_(diptère).xlsx
+++ b/biology/Zoologie/Agathon_(diptère)/Agathon_(diptère).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agathon_(dipt%C3%A8re)</t>
+          <t>Agathon_(diptère)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agathon est un genre d'insectes diptères nématocères de la famille des Blephariceridae.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agathon_(dipt%C3%A8re)</t>
+          <t>Agathon_(diptère)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (16 octobre 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (16 octobre 2018) :
 Agathon arizonica (Alexander, 1958)
 Agathon aylmeri (Garrett, 1923)
 Agathon bilobatoides (Kitakami, 1931)
@@ -533,7 +547,7 @@
 Agathon montanus (Kitakami, 1931)
 Agathon sequoiarum (Alexander, 1952)
 Agathon setosus Zwick &amp; Arefina, 2005
-Selon NCBI  (16 octobre 2018)[2] :
+Selon NCBI  (16 octobre 2018) :
 Agathon arizonica
 Agathon comstocki
 Agathon dismaleus
@@ -547,7 +561,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agathon_(dipt%C3%A8re)</t>
+          <t>Agathon_(diptère)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -565,7 +579,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) von Röder, 1890 : Zwei neue nordamerikanische Dipteren. Wiener Entomologische Zeitung, vol. 9, n. 1, p. 230-232 (texte intégral [PDF]).</t>
         </is>
